--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25.xlsx
@@ -58,10 +58,10 @@
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Days with no interaction</t>
+    <t>Resources viewed</t>
   </si>
   <si>
-    <t>Resources viewed</t>
+    <t>Days with no interaction</t>
   </si>
   <si>
     <t>Number of sessions</t>
@@ -91,6 +91,9 @@
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
+    <t>Number of days</t>
+  </si>
+  <si>
     <t>Assignments viewed</t>
   </si>
   <si>
@@ -100,10 +103,10 @@
     <t>Clicks (% of course total)</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
+    <t>Links viewed</t>
   </si>
   <si>
-    <t>Links viewed</t>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
@@ -118,13 +121,13 @@
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Number of days</t>
-  </si>
-  <si>
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Quizzes started</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
@@ -134,9 +137,6 @@
   </si>
   <si>
     <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
   </si>
   <si>
     <t>Files downloaded</t>
@@ -1029,28 +1029,28 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -1157,7 +1157,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1387,13 +1387,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>37</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>38</v>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1480,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1871,16 +1871,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1903,16 +1903,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1944,13 +1944,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1967,22 +1967,22 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -1994,12 +1994,12 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2107,19 +2107,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2139,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2203,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -2235,36 +2235,36 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2287,16 +2287,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2427,19 +2427,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2459,19 +2459,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>4</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2575,13 +2575,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -2602,12 +2602,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2917,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2935,12 +2935,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2972,13 +2972,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -3004,16 +3004,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3100,16 +3100,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3127,12 +3127,12 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3150,21 +3150,21 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3173,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3182,30 +3182,30 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3228,16 +3228,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -3246,13 +3246,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3269,42 +3269,42 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -3336,19 +3336,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -3368,19 +3368,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -3388,13 +3388,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -3415,12 +3415,12 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -3447,18 +3447,18 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -3467,16 +3467,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3560,19 +3560,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3612,19 +3612,19 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -3644,13 +3644,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -3671,21 +3671,21 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -3799,12 +3799,12 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4073,10 +4073,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -4088,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4169,16 +4169,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4201,10 +4201,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -4216,16 +4216,16 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4265,10 +4265,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -4280,16 +4280,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4297,10 +4297,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -4338,13 +4338,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -4356,12 +4356,12 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4405,19 +4405,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -4501,19 +4501,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -4553,10 +4553,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -4580,15 +4580,15 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -4617,10 +4617,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -4629,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4664,30 +4664,30 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -4696,16 +4696,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4722,13 +4722,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -4745,13 +4745,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -4772,12 +4772,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -4804,18 +4804,18 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -4836,12 +4836,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4937,16 +4937,16 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25.xlsx
@@ -49,22 +49,22 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Resources viewed</t>
+  </si>
+  <si>
     <t>Total time online (min)</t>
   </si>
   <si>
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Resources viewed</t>
-  </si>
-  <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Largest period of inactivity (h)</t>
@@ -79,19 +79,13 @@
     <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Number of days</t>
+    <t>Clicks per day</t>
   </si>
   <si>
     <t>Assignments viewed</t>
@@ -103,10 +97,13 @@
     <t>Clicks (% of course total)</t>
   </si>
   <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
     <t>Links viewed</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
@@ -115,19 +112,19 @@
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
+    <t>Number of days</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Quizzes started</t>
   </si>
   <si>
     <t>Files downloaded</t>
@@ -715,13 +715,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -875,13 +875,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -901,13 +901,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -933,13 +933,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -948,13 +948,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -965,19 +965,19 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -997,28 +997,28 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1029,28 +1029,28 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1070,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1134,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -1157,7 +1157,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1387,13 +1387,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>37</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>38</v>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1480,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1871,16 +1871,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1903,16 +1903,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1944,13 +1944,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1967,22 +1967,22 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -1994,12 +1994,12 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2043,19 +2043,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2107,19 +2107,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2229,10 +2229,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -2255,16 +2255,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2395,19 +2395,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -2415,10 +2415,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2459,19 +2459,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>4</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -2543,13 +2543,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -2570,18 +2570,18 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -2602,12 +2602,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,16 +2639,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -2698,12 +2698,12 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2940,16 +2940,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2972,13 +2972,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -3004,16 +3004,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3100,16 +3100,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3127,12 +3127,12 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3150,21 +3150,21 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3173,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3182,30 +3182,30 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3223,21 +3223,21 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -3246,13 +3246,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3269,45 +3269,45 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -3336,19 +3336,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -3388,22 +3388,22 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -3415,15 +3415,15 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -3438,27 +3438,27 @@
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3516,31 +3516,31 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -3560,19 +3560,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -3580,13 +3580,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3595,36 +3595,36 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -3644,13 +3644,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -3671,12 +3671,12 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3694,30 +3694,30 @@
         <v>0</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -3799,18 +3799,18 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4073,10 +4073,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -4088,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -4216,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -4228,12 +4228,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4297,22 +4297,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4329,39 +4329,39 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4373,19 +4373,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4492,7 +4492,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -4597,19 +4597,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -4617,10 +4617,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -4629,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -4649,10 +4649,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -4676,18 +4676,18 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -4696,16 +4696,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4745,16 +4745,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4777,16 +4777,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4841,16 +4841,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -4873,16 +4873,16 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -4905,16 +4905,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -4937,16 +4937,16 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -4969,13 +4969,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -4996,12 +4996,12 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25.xlsx
@@ -49,25 +49,25 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Resources viewed</t>
+    <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Total time online (min)</t>
+    <t>Clicks on course</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
+    <t>Resources viewed</t>
   </si>
   <si>
     <t>Days with no interaction</t>
   </si>
   <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Largest period of inactivity (h)</t>
+  </si>
+  <si>
+    <t>Total time online (min)</t>
   </si>
   <si>
     <t>Average session duration (min)</t>
@@ -79,13 +79,19 @@
     <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Number of sessions</t>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
+    <t>Clicks per day</t>
   </si>
   <si>
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Clicks per day</t>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Number of days</t>
   </si>
   <si>
     <t>Assignments viewed</t>
@@ -97,10 +103,10 @@
     <t>Clicks (% of course total)</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
+    <t>Links viewed</t>
   </si>
   <si>
-    <t>Links viewed</t>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Clicks on forum</t>
@@ -112,13 +118,7 @@
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
     <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Number of days</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -741,13 +741,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -875,13 +875,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -901,13 +901,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -933,13 +933,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -948,13 +948,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -965,19 +965,19 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -997,28 +997,28 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1029,28 +1029,28 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1070,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1134,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -1157,7 +1157,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1189,7 +1189,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2043,19 +2043,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2203,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2223,16 +2223,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -2250,12 +2250,12 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2287,16 +2287,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2395,19 +2395,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -2415,10 +2415,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -2430,16 +2430,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2584,13 +2584,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,16 +2908,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2940,16 +2940,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2972,16 +2972,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -3004,16 +3004,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3068,16 +3068,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3118,21 +3118,21 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3150,30 +3150,30 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3191,18 +3191,18 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -3223,21 +3223,21 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -3246,13 +3246,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -3260,16 +3260,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -3278,21 +3278,21 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -3336,19 +3336,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -3388,16 +3388,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -3447,21 +3447,21 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3479,12 +3479,12 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -3493,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -3516,31 +3516,31 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -3551,7 +3551,7 @@
         <v>31</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -3580,19 +3580,19 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -3607,18 +3607,18 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -3644,13 +3644,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -3671,12 +3671,12 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3694,30 +3694,30 @@
         <v>0</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -3799,18 +3799,18 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3831,12 +3831,12 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4169,16 +4169,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4201,10 +4201,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -4219,21 +4219,21 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4265,10 +4265,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -4280,16 +4280,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4329,10 +4329,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -4341,19 +4341,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4373,19 +4373,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4405,19 +4405,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4437,19 +4437,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4469,19 +4469,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -4501,19 +4501,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -4553,10 +4553,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -4580,15 +4580,15 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -4600,16 +4600,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -4649,10 +4649,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4696,24 +4696,24 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4745,16 +4745,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4777,16 +4777,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4873,16 +4873,16 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -4905,16 +4905,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25.xlsx
@@ -49,25 +49,25 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Resources viewed</t>
+  </si>
+  <si>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
     <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Resources viewed</t>
-  </si>
-  <si>
     <t>Days with no interaction</t>
   </si>
   <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
     <t>Largest period of inactivity (h)</t>
-  </si>
-  <si>
-    <t>Total time online (min)</t>
   </si>
   <si>
     <t>Average session duration (min)</t>
@@ -76,10 +76,7 @@
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Clicks per day</t>
@@ -91,10 +88,10 @@
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Number of days</t>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Clicks per session</t>
@@ -103,19 +100,22 @@
     <t>Clicks (% of course total)</t>
   </si>
   <si>
-    <t>Links viewed</t>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Number of days</t>
   </si>
   <si>
     <t>Clicks on folder</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Links viewed</t>
   </si>
   <si>
-    <t>Start of Session 6 (%)</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
@@ -127,22 +127,22 @@
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Average grade of assignments</t>
   </si>
   <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
     <t>Files downloaded</t>
   </si>
   <si>
-    <t>Assignments submitted</t>
+    <t>Discussions viewed</t>
   </si>
   <si>
     <t>Forum posts</t>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -741,13 +741,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -837,7 +837,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -884,16 +884,16 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -901,13 +901,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -933,7 +933,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -1003,13 +1003,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -1029,28 +1029,28 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1093,28 +1093,28 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -1125,28 +1125,28 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -1189,7 +1189,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -1230,22 +1230,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1387,13 +1387,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1413,13 +1413,13 @@
         <v>37</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1477,13 +1477,13 @@
         <v>39</v>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1544,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1871,16 +1871,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1967,16 +1967,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2075,19 +2075,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2139,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -2250,21 +2250,21 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2287,31 +2287,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2363,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -2383,16 +2383,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2415,10 +2415,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -2433,27 +2433,27 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2474,12 +2474,12 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -2506,18 +2506,18 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2584,13 +2584,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,10 +2908,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -2935,12 +2935,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3068,16 +3068,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3100,13 +3100,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -3118,27 +3118,27 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -3150,13 +3150,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -3164,13 +3164,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -3182,13 +3182,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -3196,16 +3196,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3214,13 +3214,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -3228,13 +3228,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -3260,19 +3260,19 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -3324,13 +3324,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -3342,13 +3342,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -3400,19 +3400,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -3484,10 +3484,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -3496,19 +3496,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3548,13 +3548,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3563,27 +3563,27 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3653,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4082,13 +4082,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -4105,16 +4105,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -4169,10 +4169,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -4184,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4210,22 +4210,22 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4265,10 +4265,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -4280,16 +4280,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -4356,12 +4356,12 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4373,19 +4373,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4405,19 +4405,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4469,19 +4469,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -4553,10 +4553,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -4580,15 +4580,15 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -4600,16 +4600,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4629,19 +4629,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -4676,15 +4676,15 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -4699,21 +4699,21 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4745,22 +4745,22 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -4772,21 +4772,21 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4809,16 +4809,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4905,16 +4905,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25.xlsx
@@ -49,22 +49,22 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Resources viewed</t>
-  </si>
-  <si>
     <t>Total time online (min)</t>
   </si>
   <si>
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
     <t>Clicks on course</t>
   </si>
   <si>
     <t>Days with no interaction</t>
+  </si>
+  <si>
+    <t>Resources viewed</t>
+  </si>
+  <si>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Largest period of inactivity (h)</t>
@@ -76,7 +76,7 @@
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Number of sessions</t>
+    <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Clicks per day</t>
@@ -85,31 +85,22 @@
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Clicks per session</t>
   </si>
   <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
     <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Links viewed</t>
@@ -118,7 +109,16 @@
     <t>Clicks on forum</t>
   </si>
   <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
+    <t>Number of days</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
@@ -127,22 +127,22 @@
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Average grade of assignments</t>
   </si>
   <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
     <t>Files downloaded</t>
   </si>
   <si>
-    <t>Discussions viewed</t>
+    <t>Assignments submitted</t>
   </si>
   <si>
     <t>Forum posts</t>
@@ -721,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -837,7 +837,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -997,7 +997,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1006,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1029,28 +1029,28 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1093,13 +1093,13 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1125,28 +1125,28 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -1230,22 +1230,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1387,13 +1387,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1413,13 +1413,13 @@
         <v>37</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1477,13 +1477,13 @@
         <v>39</v>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1544,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1871,16 +1871,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1967,16 +1967,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2075,19 +2075,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2107,19 +2107,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2139,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -2250,21 +2250,21 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2287,31 +2287,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2363,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -2383,16 +2383,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2415,10 +2415,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -2433,53 +2433,53 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -2506,18 +2506,18 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2584,13 +2584,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,13 +2908,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -2935,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2972,7 +2972,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3068,16 +3068,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3095,18 +3095,18 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -3118,27 +3118,27 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -3150,13 +3150,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -3164,13 +3164,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -3182,13 +3182,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -3196,16 +3196,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3214,13 +3214,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -3228,13 +3228,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -3260,19 +3260,19 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3304,19 +3304,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -3324,10 +3324,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -3351,71 +3351,71 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -3511,12 +3511,12 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3543,15 +3543,15 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -3563,16 +3563,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -3595,16 +3595,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3624,19 +3624,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3653,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4082,13 +4082,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -4105,16 +4105,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4178,13 +4178,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -4201,19 +4201,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -4228,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4297,22 +4297,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -4338,13 +4338,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4373,19 +4373,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4405,19 +4405,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -4565,19 +4565,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4629,19 +4629,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -4676,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4684,7 +4684,7 @@
         <v>34</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4809,16 +4809,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4873,16 +4873,16 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25.xlsx
@@ -58,10 +58,10 @@
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Days with no interaction</t>
+    <t>Resources viewed</t>
   </si>
   <si>
-    <t>Resources viewed</t>
+    <t>Days with no interaction</t>
   </si>
   <si>
     <t>Number of sessions</t>
@@ -79,34 +79,34 @@
     <t>Days with no interaction (%)</t>
   </si>
   <si>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
     <t>Clicks per day</t>
   </si>
   <si>
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
   </si>
   <si>
     <t>Clicks per session</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
     <t>Clicks (% of course total)</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Links viewed</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
@@ -115,16 +115,19 @@
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Number of days</t>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Assignments submitted</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
@@ -140,9 +143,6 @@
   </si>
   <si>
     <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
   </si>
   <si>
     <t>Forum posts</t>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -884,16 +884,16 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -901,13 +901,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -997,28 +997,28 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1387,13 +1387,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>37</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>38</v>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1480,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2107,19 +2107,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2203,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -2250,21 +2250,21 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2287,16 +2287,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2447,10 +2447,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,13 +2908,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -2935,12 +2935,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3164,16 +3164,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3196,16 +3196,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3260,13 +3260,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -3287,36 +3287,36 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -3324,80 +3324,80 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3484,39 +3484,39 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3548,13 +3548,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3653,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4056,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -4068,15 +4068,15 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -4088,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4297,22 +4297,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4329,39 +4329,39 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4373,19 +4373,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4405,19 +4405,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4437,19 +4437,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -4501,19 +4501,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -4553,10 +4553,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -4568,16 +4568,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -4597,19 +4597,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4629,19 +4629,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4681,10 +4681,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -4693,10 +4693,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -4708,12 +4708,12 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4745,22 +4745,22 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4783,10 +4783,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4905,16 +4905,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -4937,16 +4937,16 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -4969,13 +4969,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -4996,12 +4996,12 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25.xlsx
@@ -49,6 +49,9 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Resources viewed</t>
+  </si>
+  <si>
     <t>Total time online (min)</t>
   </si>
   <si>
@@ -56,9 +59,6 @@
   </si>
   <si>
     <t>Clicks on course</t>
-  </si>
-  <si>
-    <t>Resources viewed</t>
   </si>
   <si>
     <t>Days with no interaction</t>
@@ -82,13 +82,10 @@
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Clicks per day</t>
-  </si>
-  <si>
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
+    <t>Clicks per day</t>
   </si>
   <si>
     <t>Number of days</t>
@@ -100,13 +97,16 @@
     <t>Clicks per session</t>
   </si>
   <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
     <t>Links viewed</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
@@ -115,7 +115,7 @@
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
@@ -127,7 +127,7 @@
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Assignments submitted</t>
+    <t>Quizzes started</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
@@ -139,10 +139,10 @@
     <t>Discussions viewed</t>
   </si>
   <si>
-    <t>Quizzes started</t>
+    <t>Files downloaded</t>
   </si>
   <si>
-    <t>Files downloaded</t>
+    <t>Assignments submitted</t>
   </si>
   <si>
     <t>Forum posts</t>
@@ -901,13 +901,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -933,13 +933,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -948,13 +948,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -965,19 +965,19 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1029,28 +1029,28 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1070,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2107,19 +2107,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2203,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -2235,36 +2235,36 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2287,16 +2287,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2447,10 +2447,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -2462,16 +2462,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>4</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3164,16 +3164,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3196,16 +3196,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3228,13 +3228,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -3260,10 +3260,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -3272,10 +3272,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -3287,36 +3287,36 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -3324,31 +3324,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3356,13 +3356,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -3374,13 +3374,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -3388,39 +3388,39 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -3484,16 +3484,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3543,18 +3543,18 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3563,16 +3563,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3595,24 +3595,24 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -3639,12 +3639,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4050,13 +4050,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -4073,16 +4073,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4105,16 +4105,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4146,13 +4146,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -4169,16 +4169,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4196,15 +4196,15 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -4219,21 +4219,21 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4265,95 +4265,95 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -4361,22 +4361,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4437,19 +4437,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4489,13 +4489,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -4516,15 +4516,15 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -4548,12 +4548,12 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -4585,109 +4585,109 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -4708,27 +4708,27 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -4740,12 +4740,12 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4783,10 +4783,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4850,13 +4850,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -4876,10 +4876,10 @@
         <v>34</v>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -4905,13 +4905,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -4932,12 +4932,12 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -4964,18 +4964,18 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -4996,12 +4996,12 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_25.xlsx
@@ -49,9 +49,6 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Resources viewed</t>
-  </si>
-  <si>
     <t>Total time online (min)</t>
   </si>
   <si>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t>Clicks on course</t>
+  </si>
+  <si>
+    <t>Resources viewed</t>
   </si>
   <si>
     <t>Days with no interaction</t>
@@ -82,10 +82,13 @@
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Clicks per day</t>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Number of days</t>
@@ -97,16 +100,13 @@
     <t>Clicks per session</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
     <t>Links viewed</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
@@ -115,7 +115,7 @@
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
@@ -130,6 +130,12 @@
     <t>Quizzes started</t>
   </si>
   <si>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
@@ -140,12 +146,6 @@
   </si>
   <si>
     <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
@@ -901,13 +901,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -933,13 +933,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -948,13 +948,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -965,19 +965,19 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1029,28 +1029,28 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1070,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1419,13 +1419,13 @@
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1445,13 +1445,13 @@
         <v>38</v>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1509,7 +1509,7 @@
         <v>40</v>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1544,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2107,19 +2107,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2235,19 +2235,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -2255,16 +2255,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2287,16 +2287,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2415,16 +2415,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2447,13 +2447,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2474,21 +2474,21 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -2497,24 +2497,24 @@
         <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -2561,21 +2561,21 @@
         <v>0</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2584,13 +2584,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -2698,12 +2698,12 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3054,33 +3054,33 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -3100,13 +3100,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -3118,13 +3118,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3196,13 +3196,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -3228,13 +3228,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -3260,22 +3260,22 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -3287,12 +3287,12 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3324,13 +3324,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -3391,31 +3391,31 @@
         <v>25</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3423,10 +3423,10 @@
         <v>31</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -3484,10 +3484,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -3511,44 +3511,44 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -3607,15 +3607,15 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -3639,12 +3639,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3653,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3671,12 +3671,12 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3685,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -4068,12 +4068,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4082,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4100,21 +4100,21 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4146,13 +4146,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -4169,16 +4169,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4196,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4233,7 +4233,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4265,22 +4265,22 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -4292,68 +4292,68 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -4361,22 +4361,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4437,19 +4437,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4489,13 +4489,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -4516,15 +4516,15 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -4548,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4585,51 +4585,51 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -4708,12 +4708,12 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4754,13 +4754,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4818,10 +4818,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4850,13 +4850,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -4873,16 +4873,16 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
